--- a/lecNote/05_JSP/1101_12.paging.xlsx
+++ b/lecNote/05_JSP/1101_12.paging.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI\lecNote\05_jsp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\lecNote\05_JSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22CADE4-4189-4A42-963D-33C21371F6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="페이징" sheetId="5" r:id="rId1"/>
@@ -80,18 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">페이지 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블록수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Math.ceil(페이지전체갯수/블록당 페이지 갯수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>startPage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,15 +105,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Math.ceil((double)전체글갯수/페이지당 갯수)</t>
+    <t>list.do?pageNum=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">페이지갯수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.ceil((double)전체data갯수/페이지당 갯수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.do / list.do?pageNum=11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +149,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -157,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -180,13 +189,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -201,6 +234,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -231,7 +276,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -323,6 +368,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -358,6 +420,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -533,21 +612,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="46.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +635,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -565,12 +644,14 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -579,7 +660,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -588,10 +669,14 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -602,7 +687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -613,50 +698,51 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A6:C6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>